--- a/medicine/Psychotrope/Brauerei_Locher/Brauerei_Locher.xlsx
+++ b/medicine/Psychotrope/Brauerei_Locher/Brauerei_Locher.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Brauerei Locher est une brasserie appenzelloise fondée en 1810. Elle brasse la marque de bière Appenzell.
@@ -512,10 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Die Brauerei Locher est une entreprise familiale en Appenzell.
-La brasserie a lancé, durant les années 1990, la première bière portant le label Bio Suisse, la Appenzeller Naturperle. Durant les années 1997–2007 la production s'est élevée à plus de 80 000 hectolitres. Durant les années 2010/2011, la production est montée à 140 000 hectolitres[1].
+La brasserie a lancé, durant les années 1990, la première bière portant le label Bio Suisse, la Appenzeller Naturperle. Durant les années 1997–2007 la production s'est élevée à plus de 80 000 hectolitres. Durant les années 2010/2011, la production est montée à 140 000 hectolitres.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Assortiment</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Quöllfrisch naturtrüb
 Naturperle, bière bio
@@ -564,10 +580,10 @@
 Lager dunkel
 Swiss Mountain
 Castégna, bière à la châtaigne
-Gran Alpin Amber[2]
+Gran Alpin Amber
 Gran Alpin Perla
 Gran Alpin Senza, bière bio sans alcool
-En 2002, est mis sur le marché le premier whisky[3].
+En 2002, est mis sur le marché le premier whisky.
 </t>
         </is>
       </c>
